--- a/doc/数据库设计/数据库设计.xlsx
+++ b/doc/数据库设计/数据库设计.xlsx
@@ -4,18 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="索引表" sheetId="17" r:id="rId1"/>
     <sheet name="系统用户表" sheetId="1" r:id="rId2"/>
+    <sheet name="系统日志" sheetId="18" r:id="rId3"/>
+    <sheet name="现金日记账总账" sheetId="19" r:id="rId4"/>
+    <sheet name="现金日记账明细" sheetId="20" r:id="rId5"/>
+    <sheet name="系统配置项" sheetId="21" r:id="rId6"/>
+    <sheet name="客户" sheetId="22" r:id="rId7"/>
+    <sheet name="客户分类" sheetId="23" r:id="rId8"/>
+    <sheet name="系统功能" sheetId="24" r:id="rId9"/>
+    <sheet name="商品" sheetId="25" r:id="rId10"/>
+    <sheet name="商品构成" sheetId="26" r:id="rId11"/>
+    <sheet name="商品品牌" sheetId="27" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="330">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库设计-V1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,71 +123,1239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的组织机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户是否可以登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色拥有的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色拥有的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_customer_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods_bom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods_brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods_si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品安全库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_goods_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_supplier_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存总账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory_fifo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细账 - 先进先出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_inventory_fifo_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细账 - 先进先出的明细记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金日记账总账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cash_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金日记账明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ic_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点单-主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ic_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点单-明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_it_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单-主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_it_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payables_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款付款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_po_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单 - 主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_po_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单 - 明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_po_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单与采购入库单的对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pre_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款-总账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pre_payment_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款-明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pre_receiving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款-总账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pre_receiving_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预收款-明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pr_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货出库单 - 主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pr_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货出库单 - 明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pw_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库单-主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_pw_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库单-商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receivables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receivables_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款明细账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_receiving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款收款记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_so_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_so_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_so_ws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单和销售出库单的对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sr_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sr_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货入库单商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ws_bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_ws_bill_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库单商品明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志（t_log）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>login_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录密码</t>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金日记账总账（t_cash）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日现金收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日现金支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_money</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金收入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_money</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金支出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance_money</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单据单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_created</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初建账'、'采购入库'、'采购退货出库'、'销售出库'、'销售退货入库'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金日记账明细（t_cash_detail）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置项（t_config）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的组织机构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户是否可以登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_card_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户（t_customer）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_receivables_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_payables_dt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_shipping</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_receipt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人固话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人QQ号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人手机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人固话</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人QQ号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用联系人手机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称的拼音字头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应收账款截止日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初应付账款截止日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行账号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>税号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deciaml(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类（t_customer_category）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能（t_fid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的中文说明</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品（t_goods）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称拼音字头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec_py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号的拼音字头</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双单位制下，对应销售计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(19,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品构成（t_goods_bom）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_goods_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子商品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_goods_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用t_goods的id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用t_goods的id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用本表的id字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌（t_goods_brand）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级品牌id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +1363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,12 +1397,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,11 +1449,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,7 +1473,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +1489,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -650,40 +1820,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -691,102 +1861,660 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -798,12 +2526,753 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,30 +3281,28 @@
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,10 +3322,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -866,223 +3333,1945 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4">
-        <v>50</v>
+        <v>177</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4">
+        <v>178</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4">
-        <v>255</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
